--- a/pantauclient/media/temp_reports/Laporan_9B_2025-11-25.xlsx
+++ b/pantauclient/media/temp_reports/Laporan_9B_2025-11-25.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Hadir</t>
+          <t>Sakit</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Hadir</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Hadir</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Sakit</t>
+          <t>Hadir</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Sakit</t>
+          <t>Hadir</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1277,7 +1277,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hadir: 28</t>
+          <t>Hadir: 27</t>
         </is>
       </c>
     </row>
@@ -1291,14 +1291,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sakit: 2</t>
+          <t>Sakit: 1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alpha: 1</t>
+          <t>Alpha: 3</t>
         </is>
       </c>
     </row>
